--- a/biology/Zoologie/Cloporte_rugueux/Cloporte_rugueux.xlsx
+++ b/biology/Zoologie/Cloporte_rugueux/Cloporte_rugueux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porcellio scaber
 Le Cloporte rugueux ou Porcellion rude (Porcellio scaber) est une espèce de cloportes fréquentant les sols humides et riches en matière organique en décomposition (litière du sol, bois-morts).
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez cette espèce, le telson est pointu à l'extrémité (contrairement à Porcellio dilatatus)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez cette espèce, le telson est pointu à l'extrémité (contrairement à Porcellio dilatatus).
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Cloporte rugueux et environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être considéré comme bio-indicateur de certaines conditions de milieux, mais aussi bioaccumulateur sur des sols pollués.
-Il a été étudié en tant que tel dans le nord de la France pour des études d'écotoxicité de litière de peupliers plantés sur d'anciens sites et sols industriels pollués par le plomb, le zinc et le cadmium[2].
+Il a été étudié en tant que tel dans le nord de la France pour des études d'écotoxicité de litière de peupliers plantés sur d'anciens sites et sols industriels pollués par le plomb, le zinc et le cadmium.
 </t>
         </is>
       </c>
